--- a/data/TC008.xlsx
+++ b/data/TC008.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>username</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>214563987</t>
+  </si>
+  <si>
+    <t>4125242525</t>
   </si>
 </sst>
 </file>
@@ -463,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,14 +589,14 @@
       <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="M2">
-        <v>100000</v>
-      </c>
-      <c r="N2">
-        <v>214563987</v>
-      </c>
-      <c r="O2">
-        <v>4125242525</v>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="P2" t="s">
         <v>31</v>

--- a/data/TC008.xlsx
+++ b/data/TC008.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,21 +33,9 @@
     <t>emailUsername</t>
   </si>
   <si>
-    <t>freetest@urcomp.com</t>
-  </si>
-  <si>
-    <t>09safepass</t>
-  </si>
-  <si>
     <t>Verify Your Identity</t>
   </si>
   <si>
-    <t>portgsr007@gmail.com</t>
-  </si>
-  <si>
-    <t>gsrtest#123</t>
-  </si>
-  <si>
     <t>Warm</t>
   </si>
   <si>
@@ -90,12 +78,6 @@
     <t>numofemployees</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
     <t>Alpha com</t>
   </si>
   <si>
@@ -124,13 +106,31 @@
   </si>
   <si>
     <t>4125242525</t>
+  </si>
+  <si>
+    <t>antman@inc.com</t>
+  </si>
+  <si>
+    <t>hunt@007</t>
+  </si>
+  <si>
+    <t>antman.hunt@gmail.com</t>
+  </si>
+  <si>
+    <t>hunt#123</t>
+  </si>
+  <si>
+    <t>Antony</t>
+  </si>
+  <si>
+    <t>Rajenderan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +143,14 @@
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,15 +170,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,104 +524,107 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="R2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
